--- a/报名活动单.xlsx
+++ b/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21480" windowHeight="9690"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>店铺</t>
   </si>
@@ -136,6 +136,24 @@
   </si>
   <si>
     <t>起：2019-05-23 止：2019-06-07</t>
+  </si>
+  <si>
+    <t>亨茂号食品旗舰店</t>
+  </si>
+  <si>
+    <t>报名4款零食</t>
+  </si>
+  <si>
+    <t>起：2019-05-27 止：2019-06-30</t>
+  </si>
+  <si>
+    <t>小潮人进口食品店</t>
+  </si>
+  <si>
+    <t>一款儿童饼干</t>
+  </si>
+  <si>
+    <t>起：2019-05-27 止：2019-06-02</t>
   </si>
 </sst>
 </file>
@@ -148,7 +166,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,45 +175,102 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF7030A0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -211,40 +286,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,35 +315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -293,55 +323,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,187 +346,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,6 +537,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -568,47 +597,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,17 +631,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -652,148 +642,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -807,56 +797,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1206,97 +1196,98 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="39.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="39.8796296296296" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.8796296296296" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31.6296296296296" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.3796296296296" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="10">
         <v>20</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="12"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A4" s="11" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="10">
         <v>10.1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="10">
         <v>4</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="12"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A5" s="12" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="14"/>
@@ -1308,158 +1299,194 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A6" s="11" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="10">
         <v>10.01</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="10">
         <v>4.9</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="12"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A7" s="11" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="10">
         <v>40</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="10">
         <v>10</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="12"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="14.25" spans="2:6">
-      <c r="B8" s="6" t="s">
+    <row r="8" s="1" customFormat="1" spans="2:6">
+      <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="10">
         <v>25.2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="10">
         <v>4.7</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="12"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="10">
         <v>5.2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="10">
         <v>4</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="12"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A10" s="11" t="s">
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="10">
         <v>10.1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="10">
         <v>5</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="12"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A11" s="11" t="s">
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="10">
         <v>18.01</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="10">
         <v>2</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="12"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="14.25" spans="2:6">
-      <c r="B12" s="6" t="s">
+    <row r="12" s="1" customFormat="1" spans="2:6">
+      <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="10">
         <v>10</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="10">
         <v>2</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="12"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="14.25" spans="2:6">
-      <c r="B13" s="6" t="s">
+    <row r="13" s="1" customFormat="1" spans="2:6">
+      <c r="B13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="10">
         <v>15</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="10">
         <v>2</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="12"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A14" s="19" t="s">
+    <row r="14" s="1" customFormat="1" spans="1:6">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="10">
         <v>20.6</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="10">
         <v>3.01</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="D15" s="18">
+        <v>4</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="18">
+        <v>25.1</v>
+      </c>
+      <c r="D16" s="18">
+        <v>4.9</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1477,7 +1504,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1494,7 +1521,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/报名活动单.xlsx
+++ b/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="21240" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <t>商品</t>
   </si>
   <si>
-    <t>佣金</t>
-  </si>
-  <si>
-    <t>服务费</t>
+    <t>佣金%</t>
+  </si>
+  <si>
+    <t>服务费%</t>
   </si>
   <si>
     <t>起止时间</t>
@@ -161,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -193,9 +193,90 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,112 +290,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -323,15 +298,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,12 +346,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -364,169 +394,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,80 +537,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -633,7 +559,81 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,10 +645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,137 +657,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,9 +795,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -809,15 +806,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,12 +829,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1199,37 +1181,37 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="39.8796296296296" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.8796296296296" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="31.6296296296296" style="5" customWidth="1"/>
-    <col min="6" max="6" width="36.3796296296296" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1237,65 +1219,65 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="6">
         <v>20</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="6">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>10.1</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1303,190 +1285,190 @@
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>10.01</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
         <v>4.9</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>40</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <v>10</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:6">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>25.2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <v>4.7</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="6">
         <v>5.2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <v>4</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="6">
         <v>10.1</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="6">
         <v>5</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="6">
         <v>18.01</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:6">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="6">
         <v>10</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="6">
         <v>2</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="2:6">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="6">
         <v>15</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="6">
         <v>2</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="6">
         <v>20.6</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="6">
         <v>3.01</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="8"/>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:6">
+    <row r="15" s="1" customFormat="1" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="6">
         <v>3.6</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="6">
         <v>4</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="8"/>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:6">
+    <row r="16" s="1" customFormat="1" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="6">
         <v>25.1</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="6">
         <v>4.9</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1504,7 +1486,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1521,7 +1503,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/报名活动单.xlsx
+++ b/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="9060"/>
+    <workbookView windowWidth="18708" windowHeight="8147"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>店铺</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>起：2019-05-27 止：2019-06-02</t>
+  </si>
+  <si>
+    <t>足信鞋吧</t>
+  </si>
+  <si>
+    <t>报名两款小白鞋神器</t>
+  </si>
+  <si>
+    <t>起：2019-05-28 止：2019-07-01</t>
   </si>
 </sst>
 </file>
@@ -161,12 +170,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,28 +202,66 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -223,7 +270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,8 +284,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,37 +294,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,40 +339,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,127 +362,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,55 +542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,6 +553,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,30 +582,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,6 +630,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -645,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,16 +673,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,119 +691,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,6 +845,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1178,20 +1197,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.8833333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="39.8796296296296" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.8796296296296" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="36.3833333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31.6296296296296" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.3796296296296" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1469,6 +1488,24 @@
         <v>45</v>
       </c>
       <c r="F16" s="8"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="6">
+        <v>15</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1486,7 +1523,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1503,7 +1540,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/报名活动单.xlsx
+++ b/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18708" windowHeight="8147"/>
+    <workbookView windowWidth="21240" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,12 +170,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,20 +205,43 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -226,51 +249,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,6 +263,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -294,7 +325,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,44 +334,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,175 +361,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,6 +564,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -582,15 +584,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,13 +603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,24 +629,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,137 +666,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,9 +838,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1200,17 +1190,17 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.8796296296296" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.8796296296296" style="4" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.6296296296296" style="4" customWidth="1"/>
-    <col min="6" max="6" width="36.3796296296296" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1502,7 +1492,7 @@
       <c r="D17" s="6">
         <v>5</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F17" s="8"/>
@@ -1523,7 +1513,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1540,7 +1530,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/报名活动单.xlsx
+++ b/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="9060"/>
+    <workbookView windowWidth="20340" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>店铺</t>
   </si>
@@ -163,6 +163,24 @@
   </si>
   <si>
     <t>起：2019-05-28 止：2019-07-01</t>
+  </si>
+  <si>
+    <t>GOTO洗护品牌店</t>
+  </si>
+  <si>
+    <t>GOTO纳米防水喷雾剂 *1</t>
+  </si>
+  <si>
+    <t>起：2019-05-31 止：2019-06-30</t>
+  </si>
+  <si>
+    <t>809000居家</t>
+  </si>
+  <si>
+    <t>日本本土小林脱毛膏.... * 11款产品</t>
+  </si>
+  <si>
+    <t>起：2019-05-31 止：2019-07-03</t>
   </si>
 </sst>
 </file>
@@ -171,9 +189,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -202,6 +220,82 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -211,22 +305,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,21 +328,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -264,83 +336,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,19 +373,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,31 +493,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,121 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,45 +564,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -618,6 +597,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -637,15 +664,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -654,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1187,7 +1205,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -1496,6 +1514,42 @@
         <v>48</v>
       </c>
       <c r="F17" s="8"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="6">
+        <v>30.1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/报名活动单.xlsx
+++ b/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20340" windowHeight="9180"/>
+    <workbookView windowWidth="15060" windowHeight="8147"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>店铺</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>起：2019-05-31 止：2019-07-03</t>
+  </si>
+  <si>
+    <t>玛丽安娜俄国代购</t>
+  </si>
+  <si>
+    <t>俄品 * 17 款产品</t>
   </si>
 </sst>
 </file>
@@ -188,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -220,6 +226,104 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -229,21 +333,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,113 +369,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -373,187 +379,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,47 +573,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,26 +600,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,6 +631,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -672,10 +678,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +690,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1205,20 +1211,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.8833333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="39.8796296296296" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.8796296296296" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="36.3833333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31.6296296296296" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.3796296296296" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1550,6 +1556,24 @@
         <v>54</v>
       </c>
       <c r="F19" s="8"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3.01</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1567,7 +1591,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1584,7 +1608,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/报名活动单.xlsx
+++ b/报名活动单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>店铺</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>起：2019-05-20 止：2019-05-27</t>
+  </si>
+  <si>
+    <t>苹果8plus手机壳硅胶6s</t>
+  </si>
+  <si>
+    <t>起：2019-06-01 止：2019-06-06</t>
   </si>
   <si>
     <t>智承企业车品店</t>
@@ -194,10 +200,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -226,8 +232,53 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +292,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -249,62 +353,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,60 +375,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -379,13 +385,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,19 +517,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,43 +547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,97 +565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,15 +576,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -600,8 +597,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,13 +618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,17 +648,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,6 +665,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -678,10 +684,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,133 +696,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1211,10 +1217,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="$A20:$XFD20"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1266,138 +1272,135 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="1" customFormat="1" spans="2:6">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="6">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6">
         <v>10.1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D5" s="6">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="F6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6">
-        <v>10.01</v>
-      </c>
-      <c r="D6" s="6">
-        <v>4.9</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="8"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6">
+        <v>10.01</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4.9</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6">
-        <v>40</v>
-      </c>
-      <c r="D7" s="6">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:6">
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="6">
-        <v>25.2</v>
+        <v>40</v>
       </c>
       <c r="D8" s="6">
-        <v>4.7</v>
+        <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="1" customFormat="1" spans="2:6">
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6">
+        <v>25.2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="6">
-        <v>5.2</v>
-      </c>
-      <c r="D9" s="6">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="6">
-        <v>10.1</v>
-      </c>
-      <c r="D10" s="6">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="F10" s="8"/>
     </row>
@@ -1409,171 +1412,189 @@
         <v>33</v>
       </c>
       <c r="C11" s="6">
-        <v>18.01</v>
+        <v>10.1</v>
       </c>
       <c r="D11" s="6">
-        <v>2</v>
-      </c>
-      <c r="E11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="2:6">
       <c r="B12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="6">
-        <v>10</v>
+        <v>18.01</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
+    <row r="14" s="1" customFormat="1" spans="2:6">
       <c r="B14" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="6">
-        <v>20.6</v>
+        <v>15</v>
       </c>
       <c r="D14" s="6">
-        <v>3.01</v>
+        <v>2</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:6">
       <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6">
+        <v>20.6</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3.01</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="D15" s="6">
-        <v>4</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:6">
       <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" s="6">
-        <v>25.1</v>
-      </c>
-      <c r="D16" s="6">
-        <v>4.9</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="F16" s="8"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:6">
       <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6">
+        <v>25.1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4.9</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" s="6">
-        <v>15</v>
-      </c>
-      <c r="D17" s="6">
-        <v>5</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="F17" s="8"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="6">
-        <v>30.1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>3</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:6">
       <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6">
+        <v>30.1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C19" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="D19" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:6">
       <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="6">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="6">
         <v>3.01</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="6">
         <v>2</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="8"/>
+      <c r="E21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/报名活动单.xlsx
+++ b/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15060" windowHeight="8147"/>
+    <workbookView windowWidth="20340" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>店铺</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>俄品 * 17 款产品</t>
+  </si>
+  <si>
+    <t>透蜜美妆专柜</t>
+  </si>
+  <si>
+    <t>抖音网红同款意大利咕琦防护喷雾</t>
+  </si>
+  <si>
+    <t>起：2019-06-01 止：2019-06-07</t>
   </si>
 </sst>
 </file>
@@ -200,10 +209,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -233,6 +242,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -240,8 +257,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -256,12 +280,65 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -269,8 +346,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,51 +370,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -345,36 +378,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -397,13 +406,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,13 +496,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,37 +538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,97 +556,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,6 +585,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -594,15 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -614,36 +623,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,6 +655,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -684,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1217,20 +1226,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A22" sqref="$A22:$XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.8796296296296" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.8796296296296" style="4" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.6296296296296" style="4" customWidth="1"/>
-    <col min="6" max="6" width="36.3796296296296" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1595,6 +1604,24 @@
         <v>56</v>
       </c>
       <c r="F21" s="8"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="6">
+        <v>25</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1612,7 +1639,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1629,7 +1656,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/报名活动单.xlsx
+++ b/报名活动单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>店铺</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>起：2019-06-01 止：2019-06-07</t>
+  </si>
+  <si>
+    <t>彦妮日化</t>
+  </si>
+  <si>
+    <t>林肯洗发水清爽去屑洗发乳液 * 2 两款产品</t>
+  </si>
+  <si>
+    <t>起：2019-06-02 止：2019-07-03</t>
   </si>
 </sst>
 </file>
@@ -209,10 +218,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -241,6 +250,82 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -251,14 +336,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,49 +357,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -330,22 +365,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -354,25 +373,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,6 +386,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -394,6 +403,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -406,19 +457,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,31 +565,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,115 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,8 +599,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -630,27 +641,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -685,6 +676,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -693,10 +702,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,133 +714,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1226,10 +1235,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="$A22:$XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1622,6 +1631,24 @@
         <v>61</v>
       </c>
       <c r="F22" s="8"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="6">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6">
+        <v>5</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/报名活动单.xlsx
+++ b/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20340" windowHeight="9180"/>
+    <workbookView windowWidth="15060" windowHeight="8147"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>店铺</t>
   </si>
@@ -81,6 +81,12 @@
     <t>所有商品6月1号开门红重新报活动</t>
   </si>
   <si>
+    <t>两款眼盘</t>
+  </si>
+  <si>
+    <t>起：2019-06-03 止：2019-07-06</t>
+  </si>
+  <si>
     <t>润福阁形象店</t>
   </si>
   <si>
@@ -160,6 +166,9 @@
   </si>
   <si>
     <t>起：2019-05-27 止：2019-06-02</t>
+  </si>
+  <si>
+    <t>日本进口零食糖果春日井冲绳黑糖*2款零食</t>
   </si>
   <si>
     <t>足信鞋吧</t>
@@ -219,8 +228,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -239,7 +248,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF7030A0"/>
+      <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -251,7 +260,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,37 +358,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,90 +402,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -403,61 +412,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,121 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,6 +603,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -623,41 +662,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,7 +690,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,10 +711,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,133 +723,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -866,20 +875,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1235,20 +1244,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.8833333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="39.8796296296296" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.8796296296296" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="36.3833333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31.6296296296296" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.3796296296296" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1300,7 +1309,7 @@
       <c r="D3" s="6">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="8"/>
@@ -1309,12 +1318,12 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="8"/>
@@ -1332,7 +1341,7 @@
       <c r="D5" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="8"/>
@@ -1341,102 +1350,99 @@
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="1" customFormat="1" spans="2:6">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="6">
-        <v>10.01</v>
-      </c>
-      <c r="D7" s="6">
-        <v>4.9</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6">
+        <v>10.01</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4.9</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="6">
-        <v>40</v>
-      </c>
-      <c r="D8" s="6">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="2:6">
       <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="6">
-        <v>25.2</v>
+        <v>40</v>
       </c>
       <c r="D9" s="6">
-        <v>4.7</v>
+        <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="1" t="s">
+    <row r="10" s="1" customFormat="1" spans="2:6">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6">
+        <v>25.2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="6">
-        <v>5.2</v>
-      </c>
-      <c r="D10" s="6">
-        <v>4</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
       <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="6">
-        <v>10.1</v>
-      </c>
-      <c r="D11" s="6">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="F11" s="8"/>
     </row>
@@ -1448,166 +1454,163 @@
         <v>35</v>
       </c>
       <c r="C12" s="6">
-        <v>18.01</v>
+        <v>10.1</v>
       </c>
       <c r="D12" s="6">
-        <v>2</v>
-      </c>
-      <c r="E12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="2:6">
       <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="6">
-        <v>10</v>
+        <v>18.01</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:6">
       <c r="B14" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>39</v>
-      </c>
+    <row r="15" s="1" customFormat="1" spans="2:6">
       <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="6">
-        <v>20.6</v>
+        <v>15</v>
       </c>
       <c r="D15" s="6">
-        <v>3.01</v>
+        <v>2</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:6">
       <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6">
+        <v>20.6</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3.01</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="D16" s="6">
-        <v>4</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="F16" s="8"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:6">
       <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" s="6">
-        <v>25.1</v>
-      </c>
-      <c r="D17" s="6">
-        <v>4.9</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="F17" s="8"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6">
+        <v>25.1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4.9</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="6">
-        <v>15</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="2:6">
+      <c r="B19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="6">
+        <v>20</v>
+      </c>
+      <c r="D19" s="6">
         <v>5</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="6">
-        <v>30.1</v>
-      </c>
-      <c r="D19" s="6">
-        <v>3</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C20" s="6">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="D20" s="6">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21" s="6">
-        <v>3.01</v>
+        <v>30.1</v>
       </c>
       <c r="D21" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>56</v>
@@ -1616,39 +1619,75 @@
     </row>
     <row r="22" s="1" customFormat="1" spans="1:6">
       <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="6">
-        <v>25</v>
-      </c>
-      <c r="D22" s="6">
-        <v>5</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:6">
       <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3.01</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:6">
+      <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C24" s="6">
+        <v>25</v>
+      </c>
+      <c r="D24" s="6">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="6">
         <v>20</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D25" s="6">
         <v>5</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="8"/>
+      <c r="E25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1666,7 +1705,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1683,7 +1722,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/报名活动单.xlsx
+++ b/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15060" windowHeight="8147"/>
+    <workbookView windowWidth="19125" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>店铺</t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>起：2019-06-02 止：2019-07-03</t>
+  </si>
+  <si>
+    <t>杰曦美</t>
+  </si>
+  <si>
+    <t>vnk圆管哑光钻石口红 * 3 款口红</t>
+  </si>
+  <si>
+    <t>起：2019-06-04 止：2019-07-06</t>
   </si>
 </sst>
 </file>
@@ -227,9 +236,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -266,6 +275,135 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -273,135 +411,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -412,19 +421,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,157 +595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,36 +612,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -666,7 +645,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,7 +699,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,10 +720,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,133 +732,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1244,20 +1253,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.8796296296296" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.8796296296296" style="4" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.6296296296296" style="4" customWidth="1"/>
-    <col min="6" max="6" width="36.3796296296296" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1688,6 +1697,24 @@
         <v>67</v>
       </c>
       <c r="F25" s="8"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="6">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1705,7 +1732,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1722,7 +1749,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/报名活动单.xlsx
+++ b/报名活动单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>店铺</t>
   </si>
@@ -229,6 +229,24 @@
   </si>
   <si>
     <t>起：2019-06-04 止：2019-07-06</t>
+  </si>
+  <si>
+    <t>flaicher旗舰店</t>
+  </si>
+  <si>
+    <t>孕妇内衣哺乳文胸聚拢防下垂</t>
+  </si>
+  <si>
+    <t>起：2019-06-05 止：2019-07-09</t>
+  </si>
+  <si>
+    <t>飘信旗舰店</t>
+  </si>
+  <si>
+    <t>AJ球鞋面纳米防水喷雾剂防尘防</t>
+  </si>
+  <si>
+    <t>起：2019-06-05 止：2019-07-08</t>
   </si>
 </sst>
 </file>
@@ -236,12 +254,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,8 +286,129 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,21 +422,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -305,112 +429,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -421,25 +445,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,157 +619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,28 +639,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,16 +697,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,18 +728,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,10 +744,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,137 +756,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,6 +928,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1253,10 +1283,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1716,7 +1746,47 @@
       </c>
       <c r="F26" s="8"/>
     </row>
+    <row r="27" s="1" customFormat="1" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="6">
+        <v>25.11</v>
+      </c>
+      <c r="D27" s="6">
+        <v>3</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:6">
+      <c r="A28" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="6">
+        <v>20.1</v>
+      </c>
+      <c r="D28" s="6">
+        <v>5</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A28" r:id="rId1" display="飘信旗舰店" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B28" r:id="rId2" display="AJ球鞋面纳米防水喷雾剂防尘防" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.1aea75a56vZa05&amp;id=590515292384"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/报名活动单.xlsx
+++ b/报名活动单.xlsx
@@ -45,10 +45,10 @@
     <t>起：2019-05-20 止：2019-05-27</t>
   </si>
   <si>
-    <t>苹果8plus手机壳硅胶6s</t>
-  </si>
-  <si>
-    <t>起：2019-06-01 止：2019-06-06</t>
+    <t>苹果8plus手机壳硅胶6s苹果7plu</t>
+  </si>
+  <si>
+    <t>起：2019-06-07 止：2019-06-13</t>
   </si>
   <si>
     <t>智承企业车品店</t>
@@ -147,7 +147,7 @@
     <t>报名7款女装</t>
   </si>
   <si>
-    <t>起：2019-05-23 止：2019-06-07</t>
+    <t>起：2019-06-06 止：2019-06-13</t>
   </si>
   <si>
     <t>亨茂号食品旗舰店</t>
@@ -292,8 +292,100 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,13 +399,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -323,92 +408,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,7 +423,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,187 +445,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,35 +639,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,6 +678,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -711,21 +717,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -736,6 +727,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -744,10 +744,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,137 +756,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -913,6 +913,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1285,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1339,7 +1342,7 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:6">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="6">
@@ -1348,7 +1351,7 @@
       <c r="D3" s="6">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="8"/>
@@ -1357,12 +1360,12 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="8"/>
@@ -1380,7 +1383,7 @@
       <c r="D5" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="8"/>
@@ -1389,15 +1392,15 @@
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1411,7 +1414,7 @@
       <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="8"/>
@@ -1516,7 +1519,7 @@
       <c r="D13" s="6">
         <v>2</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="8"/>
@@ -1531,7 +1534,7 @@
       <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="14" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="8"/>
@@ -1546,7 +1549,7 @@
       <c r="D15" s="6">
         <v>2</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="14" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="8"/>
@@ -1564,7 +1567,7 @@
       <c r="D16" s="6">
         <v>3.01</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="8"/>
@@ -1600,7 +1603,7 @@
       <c r="D18" s="6">
         <v>4.9</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="12" t="s">
         <v>49</v>
       </c>
       <c r="F18" s="8"/>
@@ -1765,10 +1768,10 @@
       <c r="F27" s="8"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:6">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="6">
@@ -1786,6 +1789,7 @@
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1" display="飘信旗舰店" tooltip="点击进入店铺推广详情页"/>
     <hyperlink ref="B28" r:id="rId2" display="AJ球鞋面纳米防水喷雾剂防尘防" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.1aea75a56vZa05&amp;id=590515292384"/>
+    <hyperlink ref="B3" r:id="rId3" display="苹果8plus手机壳硅胶6s苹果7plu" tooltip="http://item.taobao.com/item.htm?id=576307503042"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/报名活动单.xlsx
+++ b/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19125" windowHeight="8685"/>
+    <workbookView windowWidth="22740" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>店铺</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>起：2019-05-09 止：2019-05-23</t>
-  </si>
-  <si>
-    <t>所有商品6月1号开门红重新报活动</t>
   </si>
   <si>
     <t>两款眼盘</t>
@@ -294,7 +291,112 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,19 +417,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,103 +432,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -445,55 +442,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,127 +604,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,6 +633,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -650,30 +682,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,37 +710,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,10 +741,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,137 +753,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,9 +931,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1288,8 +1282,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1400,13 +1394,11 @@
       <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6">
         <v>15</v>
@@ -1415,16 +1407,16 @@
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="6">
         <v>10.01</v>
@@ -1433,16 +1425,16 @@
         <v>4.9</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="C9" s="6">
         <v>40</v>
@@ -1451,13 +1443,13 @@
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:6">
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6">
         <v>25.2</v>
@@ -1466,16 +1458,16 @@
         <v>4.7</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
       <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="C11" s="6">
         <v>5.2</v>
@@ -1484,16 +1476,16 @@
         <v>4</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="8"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="C12" s="6">
         <v>10.1</v>
@@ -1502,16 +1494,16 @@
         <v>5</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:6">
       <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="C13" s="6">
         <v>18.01</v>
@@ -1520,13 +1512,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:6">
       <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="6">
         <v>10</v>
@@ -1535,13 +1527,13 @@
         <v>2</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:6">
       <c r="B15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="6">
         <v>15</v>
@@ -1550,16 +1542,16 @@
         <v>2</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:6">
       <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="C16" s="6">
         <v>20.6</v>
@@ -1568,16 +1560,16 @@
         <v>3.01</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="8"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:6">
       <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="C17" s="6">
         <v>3.6</v>
@@ -1586,16 +1578,16 @@
         <v>4</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="8"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="C18" s="6">
         <v>25.1</v>
@@ -1604,13 +1596,13 @@
         <v>4.9</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:6">
       <c r="B19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="6">
         <v>20</v>
@@ -1619,16 +1611,16 @@
         <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:6">
       <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="C20" s="6">
         <v>15</v>
@@ -1637,16 +1629,16 @@
         <v>5</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="C21" s="6">
         <v>30.1</v>
@@ -1655,16 +1647,16 @@
         <v>3</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="8"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:6">
       <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="C22" s="6">
         <v>4.5</v>
@@ -1673,16 +1665,16 @@
         <v>2.5</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:6">
       <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="C23" s="6">
         <v>3.01</v>
@@ -1691,34 +1683,34 @@
         <v>2</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:6">
-      <c r="A24" s="1" t="s">
+    <row r="24" s="2" customFormat="1" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="12">
+        <v>25</v>
+      </c>
+      <c r="D24" s="12">
+        <v>5</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="6">
-        <v>25</v>
-      </c>
-      <c r="D24" s="6">
-        <v>5</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:6">
       <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="C25" s="6">
         <v>20</v>
@@ -1727,16 +1719,16 @@
         <v>5</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:6">
       <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="C26" s="6">
         <v>6</v>
@@ -1745,16 +1737,16 @@
         <v>5</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:6">
       <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="C27" s="6">
         <v>25.11</v>
@@ -1763,16 +1755,16 @@
         <v>3</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27" s="8"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:6">
       <c r="A28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="C28" s="6">
         <v>20.1</v>
@@ -1781,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F28" s="8"/>
     </row>

--- a/报名活动单.xlsx
+++ b/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22740" windowHeight="9555"/>
+    <workbookView windowWidth="16308" windowHeight="8147"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t>店铺</t>
   </si>
@@ -78,12 +78,18 @@
     <t>起：2019-05-09 止：2019-05-23</t>
   </si>
   <si>
-    <t>两款眼盘</t>
+    <t>1款眼盘</t>
   </si>
   <si>
     <t>起：2019-06-03 止：2019-07-06</t>
   </si>
   <si>
+    <t>618XIXI抖音网红同款哑光闪粉大</t>
+  </si>
+  <si>
+    <t>起：2019-06-10 止：2019-07-13</t>
+  </si>
+  <si>
     <t>润福阁形象店</t>
   </si>
   <si>
@@ -244,6 +250,15 @@
   </si>
   <si>
     <t>起：2019-06-05 止：2019-07-08</t>
+  </si>
+  <si>
+    <t>阿姆提斯旗舰店</t>
+  </si>
+  <si>
+    <t>反光背心马甲环卫施工夜骑行</t>
+  </si>
+  <si>
+    <t>起：2019-06-10 止：2019-06-18</t>
   </si>
 </sst>
 </file>
@@ -289,6 +304,135 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,138 +442,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -442,49 +457,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,133 +631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,20 +653,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,50 +705,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,6 +728,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -741,10 +756,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,137 +768,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -925,6 +940,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1280,20 +1298,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.8833333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="39.8796296296296" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.8796296296296" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="36.3833333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31.6296296296296" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.3796296296296" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1411,90 +1429,83 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="1" t="s">
+    <row r="8" s="1" customFormat="1" spans="2:6">
+      <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="6">
-        <v>10.01</v>
-      </c>
-      <c r="D8" s="6">
-        <v>4.9</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6">
+        <v>10.01</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4.9</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6">
-        <v>40</v>
-      </c>
-      <c r="D9" s="6">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:6">
       <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="6">
-        <v>25.2</v>
+        <v>40</v>
       </c>
       <c r="D10" s="6">
-        <v>4.7</v>
+        <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="1" customFormat="1" spans="2:6">
+      <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6">
+        <v>25.2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="6">
-        <v>5.2</v>
-      </c>
-      <c r="D11" s="6">
-        <v>4</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="F11" s="8"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="6">
-        <v>10.1</v>
-      </c>
-      <c r="D12" s="6">
-        <v>5</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -1506,282 +1517,321 @@
         <v>36</v>
       </c>
       <c r="C13" s="6">
-        <v>18.01</v>
+        <v>10.1</v>
       </c>
       <c r="D13" s="6">
-        <v>2</v>
-      </c>
-      <c r="E13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:6">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="2:6">
       <c r="B14" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="6">
-        <v>10</v>
+        <v>18.01</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>37</v>
+      <c r="E14" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:6">
       <c r="B15" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>37</v>
+      <c r="E15" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>40</v>
-      </c>
+    <row r="16" s="1" customFormat="1" spans="2:6">
       <c r="B16" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="6">
-        <v>20.6</v>
+        <v>15</v>
       </c>
       <c r="D16" s="6">
-        <v>3.01</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="F16" s="8"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:6">
       <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6">
+        <v>20.6</v>
+      </c>
+      <c r="D17" s="6">
+        <v>3.01</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="D17" s="6">
-        <v>4</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="F17" s="8"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="6">
-        <v>25.1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>4.9</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:6">
+      <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="2:6">
       <c r="B19" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="6">
-        <v>20</v>
+        <v>25.1</v>
       </c>
       <c r="D19" s="6">
-        <v>5</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>21</v>
+        <v>4.9</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>50</v>
-      </c>
+    <row r="20" s="1" customFormat="1" spans="2:6">
       <c r="B20" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D20" s="6">
         <v>5</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6">
+        <v>15</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="C21" s="6">
-        <v>30.1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>3</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="F21" s="8"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:6">
       <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6">
+        <v>30.1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C22" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="D22" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:6">
       <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="6">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="6">
         <v>3.01</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="6">
         <v>2</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:6">
-      <c r="A24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="12">
+      <c r="E24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="12">
         <v>25</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="12">
         <v>5</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="E25" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="6">
-        <v>20</v>
-      </c>
-      <c r="D25" s="6">
-        <v>5</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:6">
       <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="C26" s="6">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D26" s="6">
         <v>5</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:6">
       <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="6">
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="6">
         <v>25.11</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="6">
         <v>3</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:6">
-      <c r="A28" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="E28" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="6">
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:6">
+      <c r="A29" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="6">
         <v>20.1</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <v>5</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="8"/>
+      <c r="E29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:6">
+      <c r="A30" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="6">
+        <v>10</v>
+      </c>
+      <c r="D30" s="6">
+        <v>5</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A28" r:id="rId1" display="飘信旗舰店" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="B28" r:id="rId2" display="AJ球鞋面纳米防水喷雾剂防尘防" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.1aea75a56vZa05&amp;id=590515292384"/>
+    <hyperlink ref="A29" r:id="rId1" display="飘信旗舰店" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B29" r:id="rId2" display="AJ球鞋面纳米防水喷雾剂防尘防" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.1aea75a56vZa05&amp;id=590515292384"/>
     <hyperlink ref="B3" r:id="rId3" display="苹果8plus手机壳硅胶6s苹果7plu" tooltip="http://item.taobao.com/item.htm?id=576307503042"/>
+    <hyperlink ref="A30" r:id="rId1" display="阿姆提斯旗舰店" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B30" r:id="rId4" display="反光背心马甲环卫施工夜骑行" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.c7d575a5JyGiF3&amp;id=593676327878"/>
+    <hyperlink ref="B8" r:id="rId5" display="618XIXI抖音网红同款哑光闪粉大" tooltip="http://item.taobao.com/item.htm?id=590204278695"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1798,7 +1848,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1815,7 +1865,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/报名活动单.xlsx
+++ b/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16308" windowHeight="8147"/>
+    <workbookView windowWidth="20730" windowHeight="9705"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
   <si>
     <t>店铺</t>
   </si>
@@ -259,6 +259,27 @@
   </si>
   <si>
     <t>起：2019-06-10 止：2019-06-18</t>
+  </si>
+  <si>
+    <t>伊思家旗舰店</t>
+  </si>
+  <si>
+    <t>实木洞洞板家用书房实木墙上</t>
+  </si>
+  <si>
+    <t>起：2019-06-12 止：2019-07-15</t>
+  </si>
+  <si>
+    <t>祖传中医配方</t>
+  </si>
+  <si>
+    <t>鼻塞打喷嚏流鼻涕过敏性鼻痒</t>
+  </si>
+  <si>
+    <t>富瑞德空气炸锅</t>
+  </si>
+  <si>
+    <t>富瑞德空气炸锅家用无油新款六</t>
   </si>
 </sst>
 </file>
@@ -304,6 +325,56 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -312,27 +383,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -343,30 +393,64 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,69 +462,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -448,7 +469,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,187 +478,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,6 +675,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -675,32 +717,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,13 +761,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -768,137 +795,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -906,6 +933,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -932,23 +965,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1298,40 +1352,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.8796296296296" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.8796296296296" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.6296296296296" style="4" customWidth="1"/>
-    <col min="6" max="6" width="36.3796296296296" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="18.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1339,490 +1393,544 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>20</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="8">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:6">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="8">
         <v>20</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="8">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="8">
         <v>10.1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="8">
         <v>4</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:6">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="8">
         <v>15</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="8">
         <v>3</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:6">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="8">
         <v>10.01</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="8">
         <v>4.9</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="8">
         <v>40</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="8">
         <v>10</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:6">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="8">
         <v>25.2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="8">
         <v>4.7</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="8">
         <v>5.2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="8">
         <v>4</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="8">
         <v>10.1</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="8">
         <v>5</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="8">
         <v>18.01</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="8">
         <v>2</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:6">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="8">
         <v>10</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="8">
         <v>2</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:6">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="8">
         <v>15</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="8">
         <v>2</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:6">
-      <c r="A17" s="1" t="s">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:6">
+      <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="17">
         <v>20.6</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="17">
         <v>3.01</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="8">
         <v>3.6</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="8">
         <v>4</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="8">
         <v>25.1</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="8">
         <v>4.9</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="2:6">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="8">
         <v>20</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="8">
         <v>5</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="8">
         <v>15</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="8">
         <v>5</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="8">
         <v>30.1</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="8">
         <v>3</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="8">
         <v>4.5</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="8">
         <v>2.5</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="8">
         <v>3.01</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="8">
         <v>2</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="14">
         <v>25</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="14">
         <v>5</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="8">
         <v>20</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="8">
         <v>5</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="8">
         <v>6</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="8">
         <v>5</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="8">
         <v>25.11</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="8">
         <v>3</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:6">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="8">
         <v>20.1</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="8">
         <v>5</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="8"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:6">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="8">
         <v>10</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="8">
         <v>5</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="8"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" s="4" customFormat="1" spans="1:6">
+      <c r="A31" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="23">
+        <v>6.2</v>
+      </c>
+      <c r="D31" s="23">
+        <v>3</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:6">
+      <c r="A32" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="8">
+        <v>20</v>
+      </c>
+      <c r="D32" s="8">
+        <v>5</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:6">
+      <c r="A33" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="8">
+        <v>15</v>
+      </c>
+      <c r="D33" s="8">
+        <v>5</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1832,6 +1940,12 @@
     <hyperlink ref="A30" r:id="rId1" display="阿姆提斯旗舰店" tooltip="点击进入店铺推广详情页"/>
     <hyperlink ref="B30" r:id="rId4" display="反光背心马甲环卫施工夜骑行" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.c7d575a5JyGiF3&amp;id=593676327878"/>
     <hyperlink ref="B8" r:id="rId5" display="618XIXI抖音网红同款哑光闪粉大" tooltip="http://item.taobao.com/item.htm?id=590204278695"/>
+    <hyperlink ref="A31" r:id="rId1" display="伊思家旗舰店" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B31" r:id="rId6" display="实木洞洞板家用书房实木墙上" tooltip="http://item.taobao.com/item.htm?id=591028755740"/>
+    <hyperlink ref="A32" r:id="rId1" display="祖传中医配方" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B32" r:id="rId7" display="鼻塞打喷嚏流鼻涕过敏性鼻痒" tooltip="http://item.taobao.com/item.htm?id=576163912843"/>
+    <hyperlink ref="A33" r:id="rId1" display="富瑞德空气炸锅" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B33" r:id="rId8" display="富瑞德空气炸锅家用无油新款六" tooltip="http://item.taobao.com/item.htm?id=594586704591"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1848,7 +1962,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1865,7 +1979,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/报名活动单.xlsx
+++ b/报名活动单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t>店铺</t>
   </si>
@@ -147,10 +147,10 @@
     <t>衣裳美大码女装</t>
   </si>
   <si>
-    <t>报名7款女装</t>
-  </si>
-  <si>
-    <t>起：2019-06-06 止：2019-06-13</t>
+    <t>报名6款女装</t>
+  </si>
+  <si>
+    <t>起：2019-06-14 止：2019-06-25</t>
   </si>
   <si>
     <t>亨茂号食品旗舰店</t>
@@ -280,6 +280,15 @@
   </si>
   <si>
     <t>富瑞德空气炸锅家用无油新款六</t>
+  </si>
+  <si>
+    <t>捷豹汽车用品</t>
+  </si>
+  <si>
+    <t>汽车手机支撑架车载手机支架车</t>
+  </si>
+  <si>
+    <t>起：2019-06-14 止：2019-06-21</t>
   </si>
 </sst>
 </file>
@@ -326,6 +335,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -334,21 +351,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,7 +411,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,16 +433,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,54 +458,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,37 +493,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +631,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,121 +655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,6 +684,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -696,34 +746,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,30 +784,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -783,10 +792,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,137 +804,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,16 +983,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -994,12 +1006,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1352,10 +1358,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1545,23 +1551,23 @@
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="1" t="s">
+    <row r="12" s="3" customFormat="1" spans="1:6">
+      <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="16">
         <v>5.2</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="16">
         <v>4</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:6">
       <c r="A13" s="1" t="s">
@@ -1594,7 +1600,7 @@
       <c r="D14" s="8">
         <v>2</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="18" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="10"/>
@@ -1609,7 +1615,7 @@
       <c r="D15" s="8">
         <v>2</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="18" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="10"/>
@@ -1624,28 +1630,28 @@
       <c r="D16" s="8">
         <v>2</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:6">
-      <c r="A17" s="3" t="s">
+    <row r="17" s="4" customFormat="1" spans="1:6">
+      <c r="A17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="19">
         <v>20.6</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="19">
         <v>3.01</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="1" t="s">
@@ -1843,7 +1849,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:6">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -1861,7 +1867,7 @@
       <c r="F29" s="10"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:6">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="21" t="s">
         <v>78</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -1879,28 +1885,28 @@
       <c r="F30" s="10"/>
     </row>
     <row r="31" s="4" customFormat="1" spans="1:6">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="19">
         <v>6.2</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="19">
         <v>3</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="24"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:6">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C32" s="8">
@@ -1915,10 +1921,10 @@
       <c r="F32" s="10"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:6">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="11" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="8">
@@ -1931,6 +1937,24 @@
         <v>83</v>
       </c>
       <c r="F33" s="10"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:6">
+      <c r="A34" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="8">
+        <v>21</v>
+      </c>
+      <c r="D34" s="8">
+        <v>10</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1946,6 +1970,8 @@
     <hyperlink ref="B32" r:id="rId7" display="鼻塞打喷嚏流鼻涕过敏性鼻痒" tooltip="http://item.taobao.com/item.htm?id=576163912843"/>
     <hyperlink ref="A33" r:id="rId1" display="富瑞德空气炸锅" tooltip="点击进入店铺推广详情页"/>
     <hyperlink ref="B33" r:id="rId8" display="富瑞德空气炸锅家用无油新款六" tooltip="http://item.taobao.com/item.htm?id=594586704591"/>
+    <hyperlink ref="A34" r:id="rId1" display="捷豹汽车用品" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B34" r:id="rId9" display="汽车手机支撑架车载手机支架车" tooltip="http://item.taobao.com/item.htm?id=596685670163"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
